--- a/ControlBook Mensal/clientes/LM WINDPOWER.xlsx
+++ b/ControlBook Mensal/clientes/LM WINDPOWER.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,251 +574,252 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000622</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 12:53</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 12:35</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 13:23</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 13:45</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44972.60694444444</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE IP: 177.52.16.178 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55779&amp;EVENTID=384970996</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>LM WINDPOWER</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>SUAPE</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>APÓS A ENERGIA RETORNAR O EQUIPAMENTO VOLTOU A RESPONDER NA REDE, FICANDO UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:26:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>00:25:37</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>00:51:37</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>00:48:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000769</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 11:48</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 11:47</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 13:23</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>28/02/2023 14:14</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE / COMPULINE</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55779&amp;EVENTID=396473833</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>LM WINDPOWER</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>SUAPE</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>FALHA NA REDE DO FORNECEDOR</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>CAUSA RAIZ: CURTO NA REDE;LOCALIZAÇÃO: ROD. ARMÍNIO GUILHERME, 10 - ROSÁRIO, CABO DE SANTO AGOSTINHO - PEAÇÃO CORRETIVA: REPUXADO RESERVA TÉCNICA E UMA CAIXA DE EMENDA.</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>02:25:59</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>02:25:59</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="5" t="n">
         <v>125422023</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>01:36:00</t>
         </is>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/LM WINDPOWER.xlsx
+++ b/ControlBook Mensal/clientes/LM WINDPOWER.xlsx
@@ -63,15 +63,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,374 +455,374 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000622</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 12:53</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 12:35</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 13:23</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 13:45</t>
         </is>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44972.60694444444</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE IP: 177.52.16.178 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55779&amp;EVENTID=384970996</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>LM WINDPOWER</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>SUAPE</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>APÓS A ENERGIA RETORNAR O EQUIPAMENTO VOLTOU A RESPONDER NA REDE, FICANDO UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:26:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>00:25:37</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>00:51:37</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>00:48:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="6" t="n">
         <v>202302000769</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 11:48</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 11:47</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 13:23</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 14:14</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE / COMPULINE</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55779&amp;EVENTID=396473833</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>LM WINDPOWER</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>SUAPE</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>FALHA NA REDE DO FORNECEDOR</t>
         </is>
       </c>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>CAUSA RAIZ: CURTO NA REDE;LOCALIZAÇÃO: ROD. ARMÍNIO GUILHERME, 10 - ROSÁRIO, CABO DE SANTO AGOSTINHO - PEAÇÃO CORRETIVA: REPUXADO RESERVA TÉCNICA E UMA CAIXA DE EMENDA.</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>02:25:59</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>02:25:59</t>
         </is>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>125422023</v>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>01:36:00</t>
         </is>

--- a/ControlBook Mensal/clientes/LM WINDPOWER.xlsx
+++ b/ControlBook Mensal/clientes/LM WINDPOWER.xlsx
@@ -63,19 +63,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -460,369 +469,369 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000622</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 12:53</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 12:35</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 13:23</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 13:45</t>
         </is>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44972.60694444444</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE IP: 177.52.16.178 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55779&amp;EVENTID=384970996</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>LM WINDPOWER</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>SUAPE</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>APÓS A ENERGIA RETORNAR O EQUIPAMENTO VOLTOU A RESPONDER NA REDE, FICANDO UP - OPERACIONAL, SEM INTERVENÇÃO DA BASE.</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:26:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>00:25:37</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>00:51:37</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>00:48:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="8" t="n">
         <v>202302000769</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 11:48</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 11:47</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 13:23</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>28/02/2023 14:14</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>RTD-LM WINDPOWER - SUAPE - IPJ00163016A - 100MBPS - BASE / COMPULINE</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55779&amp;EVENTID=396473833</t>
         </is>
       </c>
-      <c r="N3" s="6" t="inlineStr">
+      <c r="N3" s="9" t="inlineStr">
         <is>
           <t>LM WINDPOWER</t>
         </is>
       </c>
-      <c r="O3" s="6" t="inlineStr">
+      <c r="O3" s="9" t="inlineStr">
         <is>
           <t>SUAPE</t>
         </is>
       </c>
-      <c r="P3" s="6" t="inlineStr">
+      <c r="P3" s="9" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q3" s="6" t="inlineStr">
+      <c r="Q3" s="9" t="inlineStr">
         <is>
           <t>FALHA NA REDE DO FORNECEDOR</t>
         </is>
       </c>
-      <c r="R3" s="6" t="inlineStr">
+      <c r="R3" s="9" t="inlineStr">
         <is>
           <t>CAUSA RAIZ: CURTO NA REDE;LOCALIZAÇÃO: ROD. ARMÍNIO GUILHERME, 10 - ROSÁRIO, CABO DE SANTO AGOSTINHO - PEAÇÃO CORRETIVA: REPUXADO RESERVA TÉCNICA E UMA CAIXA DE EMENDA.</t>
         </is>
       </c>
-      <c r="S3" s="6" t="inlineStr">
+      <c r="S3" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="6" t="inlineStr">
+      <c r="T3" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="6" t="inlineStr">
+      <c r="U3" s="9" t="inlineStr">
         <is>
           <t>02:25:59</t>
         </is>
       </c>
-      <c r="V3" s="6" t="inlineStr">
+      <c r="V3" s="9" t="inlineStr">
         <is>
           <t>02:25:59</t>
         </is>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="9" t="n">
         <v>125422023</v>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>01:36:00</t>
         </is>
